--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_21.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1215005.668084641</v>
+        <v>1211531.698056342</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189902.9539564206</v>
+        <v>189902.9539564205</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9102620.618728813</v>
+        <v>9102620.618728811</v>
       </c>
     </row>
     <row r="9">
@@ -659,13 +659,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>227.782742132156</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -707,16 +707,16 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>305.6504748489277</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -753,10 +753,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553078</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825084</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801578</v>
@@ -871,7 +871,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>54.47555601903397</v>
+        <v>83.59830597394826</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -905,10 +905,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>371.7293199355305</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>4.723094928789942</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1060,22 +1060,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>18.37682225755673</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>129.0246247964035</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1108,10 +1108,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>104.5113366705979</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1145,10 +1145,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>302.3551236970668</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229341</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1297,19 +1297,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>18.37682225755673</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>9.27559683049698</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>45.19995918853699</v>
@@ -1333,16 +1333,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1376,19 +1376,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>278.6090725897921</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>376.0368885193218</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1534,13 +1534,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>18.37682225755673</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>84.4526210585752</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
         <v>156.1708888417951</v>
@@ -1549,7 +1549,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1619,10 +1619,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>269.5134569480836</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>60.26951970765084</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1652,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1661,7 +1661,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1670,10 +1670,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1777,16 +1777,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>164.1944522398487</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>33.20988753395287</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1807,10 +1807,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>104.5113366705979</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1856,10 +1856,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1889,16 +1889,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>63.37099713517632</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1941,7 +1941,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -2053,22 +2053,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>129.0246247964033</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>155.2114886365811</v>
       </c>
     </row>
     <row r="20">
@@ -2078,22 +2078,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>73.46100831328394</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2126,19 +2126,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>26.94389492651078</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,13 +2287,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>101.7177065691263</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>230.263497954106</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2305,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2318,10 +2318,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2330,10 +2330,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>269.513456948084</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>290.5286403308944</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2363,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2381,7 +2381,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>156.1271626621471</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>155.2114886365808</v>
       </c>
     </row>
     <row r="26">
@@ -2555,10 +2555,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>340.0237825764898</v>
       </c>
       <c r="D26" t="n">
-        <v>55.64203713755319</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2600,28 +2600,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2761,13 +2761,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>169.0167291702126</v>
+        <v>153.055538822593</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>146.4340874029173</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2804,13 +2804,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>339.0399185806814</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2837,7 +2837,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2858,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2962,16 +2962,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>112.856619986382</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -2992,10 +2992,10 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>72.32433697569687</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>199.3355115125539</v>
+        <v>323.9918595228957</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3074,28 +3074,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3184,13 +3184,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>50.43151777216868</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3235,22 +3235,22 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>128.7835007017899</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3272,16 +3272,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>191.9935735981709</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,19 +3320,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>311.4936872159404</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3421,19 +3421,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>59.49560824227976</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S37" t="n">
-        <v>122.3623168480189</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3490,7 +3490,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3500,22 +3500,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>339.0399185806814</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3548,25 +3548,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>57.44899573820159</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3658,22 +3658,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>67.24036028042121</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3721,7 +3721,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3743,16 +3743,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>371.7293199355301</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>323.9918595228957</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3800,10 +3800,10 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3907,10 +3907,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>67.18727388102259</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>101.7806877295493</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3989,13 +3989,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.595867353580316</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4022,13 +4022,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>145.1505371240056</v>
       </c>
       <c r="U44" t="n">
         <v>251.2241675082893</v>
@@ -4040,10 +4040,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,22 +4183,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>4.553842565068913</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,13 +4304,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1491.915471247703</v>
+        <v>534.603677789272</v>
       </c>
       <c r="C2" t="n">
-        <v>1122.952954307291</v>
+        <v>534.603677789272</v>
       </c>
       <c r="D2" t="n">
-        <v>764.6872557005406</v>
+        <v>534.603677789272</v>
       </c>
       <c r="E2" t="n">
         <v>534.603677789272</v>
@@ -4334,13 +4334,13 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V2" t="n">
-        <v>2642.120401548716</v>
+        <v>1684.808608090285</v>
       </c>
       <c r="W2" t="n">
-        <v>2642.120401548716</v>
+        <v>1684.808608090285</v>
       </c>
       <c r="X2" t="n">
-        <v>2268.654643287636</v>
+        <v>1311.342849829206</v>
       </c>
       <c r="Y2" t="n">
-        <v>1878.515311311824</v>
+        <v>921.2035178533938</v>
       </c>
     </row>
     <row r="3">
@@ -4401,31 +4401,31 @@
         <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018223</v>
@@ -4507,16 +4507,16 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942404</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S4" t="n">
-        <v>336.2769833124031</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="T4" t="n">
-        <v>108.9687959810048</v>
+        <v>138.3857151273829</v>
       </c>
       <c r="U4" t="n">
         <v>53.94298182036446</v>
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1567.641263708175</v>
+        <v>781.1711973675267</v>
       </c>
       <c r="C5" t="n">
-        <v>1198.678746767763</v>
+        <v>412.208680427115</v>
       </c>
       <c r="D5" t="n">
-        <v>840.413048161013</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E5" t="n">
-        <v>840.413048161013</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F5" t="n">
-        <v>429.4271433714054</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036446</v>
@@ -4565,7 +4565,7 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018223</v>
+        <v>2692.378288059849</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018223</v>
+        <v>2516.200800374019</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018223</v>
+        <v>2516.200800374019</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018223</v>
+        <v>2262.439015012111</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018223</v>
+        <v>1931.37612766854</v>
       </c>
       <c r="W5" t="n">
-        <v>2344.380435748109</v>
+        <v>1931.37612766854</v>
       </c>
       <c r="X5" t="n">
-        <v>2344.380435748109</v>
+        <v>1557.91036940746</v>
       </c>
       <c r="Y5" t="n">
-        <v>1954.241103772297</v>
+        <v>1167.771037431648</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4644,25 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064344</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064344</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="D7" t="n">
-        <v>728.1289842064344</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="E7" t="n">
-        <v>709.5665374816297</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="F7" t="n">
-        <v>562.6765899837193</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="G7" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036446</v>
@@ -4756,19 +4756,19 @@
         <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>184.2708856551155</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>159.5099885583422</v>
+        <v>777.3160057778007</v>
       </c>
       <c r="C8" t="n">
-        <v>53.94298182036445</v>
+        <v>777.3160057778007</v>
       </c>
       <c r="D8" t="n">
-        <v>53.94298182036445</v>
+        <v>777.3160057778007</v>
       </c>
       <c r="E8" t="n">
-        <v>53.94298182036445</v>
+        <v>777.3160057778007</v>
       </c>
       <c r="F8" t="n">
-        <v>53.94298182036445</v>
+        <v>777.3160057778007</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>359.3521976759876</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533138</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V8" t="n">
-        <v>1662.48357412947</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W8" t="n">
-        <v>1309.714918859356</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="X8" t="n">
-        <v>936.2491605982757</v>
+        <v>1167.455337753612</v>
       </c>
       <c r="Y8" t="n">
-        <v>546.109828622464</v>
+        <v>777.3160057778007</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>108.9687959810048</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C10" t="n">
-        <v>108.9687959810048</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D10" t="n">
-        <v>108.9687959810048</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="E10" t="n">
-        <v>108.9687959810048</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="F10" t="n">
-        <v>108.9687959810048</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G10" t="n">
-        <v>108.9687959810048</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H10" t="n">
-        <v>108.9687959810048</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>336.2769833124031</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>108.9687959810048</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>108.9687959810048</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>108.9687959810048</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>108.9687959810048</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>108.9687959810048</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>108.9687959810048</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5015,43 +5015,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1957.780595683986</v>
+        <v>1954.241103772296</v>
       </c>
       <c r="C11" t="n">
-        <v>1588.818078743575</v>
+        <v>1585.278586831885</v>
       </c>
       <c r="D11" t="n">
-        <v>1230.552380136824</v>
+        <v>1227.012888225134</v>
       </c>
       <c r="E11" t="n">
-        <v>844.7641275385799</v>
+        <v>945.5895825788796</v>
       </c>
       <c r="F11" t="n">
-        <v>433.7782227489724</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G11" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I11" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533138</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O11" t="n">
         <v>2238.843319642689</v>
@@ -5084,7 +5084,7 @@
         <v>2344.380435748108</v>
       </c>
       <c r="Y11" t="n">
-        <v>2344.380435748108</v>
+        <v>1954.241103772296</v>
       </c>
     </row>
     <row r="12">
@@ -5094,40 +5094,40 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C12" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I12" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K12" t="n">
-        <v>266.2060027641994</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L12" t="n">
-        <v>670.8219208598713</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M12" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N12" t="n">
         <v>1748.695370517453</v>
@@ -5139,22 +5139,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q12" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U12" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W12" t="n">
         <v>1572.325111207638</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="E13" t="n">
-        <v>580.2158906240411</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="F13" t="n">
-        <v>433.3259431261307</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G13" t="n">
-        <v>348.0202652891861</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H13" t="n">
-        <v>190.2718927217162</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I13" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J13" t="n">
         <v>53.94298182036445</v>
@@ -5203,46 +5203,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M13" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1491.915471247702</v>
+        <v>2056.787465592192</v>
       </c>
       <c r="C14" t="n">
-        <v>1122.952954307291</v>
+        <v>1687.824948651781</v>
       </c>
       <c r="D14" t="n">
-        <v>1122.952954307291</v>
+        <v>1329.55925004503</v>
       </c>
       <c r="E14" t="n">
-        <v>737.1647017090463</v>
+        <v>943.7709974467859</v>
       </c>
       <c r="F14" t="n">
-        <v>326.1787969194388</v>
+        <v>532.7850926571784</v>
       </c>
       <c r="G14" t="n">
-        <v>53.94298182036445</v>
+        <v>114.8212845553653</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J14" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O14" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P14" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q14" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R14" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S14" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T14" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U14" t="n">
-        <v>2642.120401548716</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V14" t="n">
-        <v>2642.120401548716</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W14" t="n">
-        <v>2642.120401548716</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="X14" t="n">
-        <v>2268.654643287636</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="Y14" t="n">
-        <v>1878.515311311824</v>
+        <v>2443.387305656314</v>
       </c>
     </row>
     <row r="15">
@@ -5352,7 +5352,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J15" t="n">
         <v>129.2001442204943</v>
@@ -5370,10 +5370,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O15" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q15" t="n">
         <v>2697.149091018223</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>546.4805193761945</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="C16" t="n">
-        <v>377.5443364482876</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="D16" t="n">
-        <v>377.5443364482876</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="E16" t="n">
-        <v>377.5443364482876</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="F16" t="n">
-        <v>377.5443364482876</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="G16" t="n">
-        <v>211.6913543878343</v>
+        <v>381.5656062325728</v>
       </c>
       <c r="H16" t="n">
-        <v>53.94298182036445</v>
+        <v>223.8172336651029</v>
       </c>
       <c r="I16" t="n">
-        <v>53.94298182036445</v>
+        <v>87.4883227637512</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K16" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L16" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M16" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R16" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S16" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="T16" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="U16" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="V16" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="W16" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="X16" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="Y16" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>159.5099885583422</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="C17" t="n">
-        <v>53.94298182036445</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="D17" t="n">
-        <v>53.94298182036445</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="E17" t="n">
-        <v>53.94298182036445</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="F17" t="n">
-        <v>53.94298182036445</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G17" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H17" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J17" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P17" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q17" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R17" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S17" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T17" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U17" t="n">
-        <v>1993.54646147304</v>
+        <v>2633.137982800873</v>
       </c>
       <c r="V17" t="n">
-        <v>1662.48357412947</v>
+        <v>2302.075095457302</v>
       </c>
       <c r="W17" t="n">
-        <v>1309.714918859356</v>
+        <v>1949.306440187188</v>
       </c>
       <c r="X17" t="n">
-        <v>936.2491605982757</v>
+        <v>1575.840681926108</v>
       </c>
       <c r="Y17" t="n">
-        <v>546.109828622464</v>
+        <v>1185.701349950297</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5589,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J18" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K18" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L18" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M18" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N18" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O18" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018223</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K19" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L19" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M19" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N19" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O19" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T19" t="n">
-        <v>597.8010803716834</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U19" t="n">
-        <v>308.6274700262513</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V19" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W19" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="X19" t="n">
-        <v>53.94298182036445</v>
+        <v>210.7222632714565</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="20">
@@ -5726,37 +5726,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>471.9067899221776</v>
+        <v>1166.959449965771</v>
       </c>
       <c r="C20" t="n">
-        <v>471.9067899221776</v>
+        <v>797.9969330253592</v>
       </c>
       <c r="D20" t="n">
-        <v>471.9067899221776</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E20" t="n">
-        <v>471.9067899221776</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F20" t="n">
-        <v>471.9067899221776</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G20" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J20" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733131</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
@@ -5774,28 +5774,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R20" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S20" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T20" t="n">
-        <v>2247.308246834949</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U20" t="n">
-        <v>1993.546461473041</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V20" t="n">
-        <v>1662.48357412947</v>
+        <v>2669.933035536899</v>
       </c>
       <c r="W20" t="n">
-        <v>1309.714918859356</v>
+        <v>2317.164380266785</v>
       </c>
       <c r="X20" t="n">
-        <v>936.2491605982761</v>
+        <v>1943.698622005704</v>
       </c>
       <c r="Y20" t="n">
-        <v>546.1098286224644</v>
+        <v>1553.559290029893</v>
       </c>
     </row>
     <row r="21">
@@ -5805,31 +5805,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C21" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E21" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H21" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J21" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K21" t="n">
         <v>309.190302261463</v>
@@ -5841,7 +5841,7 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N21" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O21" t="n">
         <v>2188.831293537797</v>
@@ -5850,22 +5850,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q21" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R21" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S21" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T21" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U21" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W21" t="n">
         <v>1572.325111207638</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>222.942782082032</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C22" t="n">
-        <v>222.942782082032</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D22" t="n">
-        <v>222.942782082032</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E22" t="n">
-        <v>222.942782082032</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F22" t="n">
-        <v>222.942782082032</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G22" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H22" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I22" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J22" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K22" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L22" t="n">
-        <v>237.8190324477911</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M22" t="n">
-        <v>382.716901165821</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N22" t="n">
-        <v>529.6040388502502</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O22" t="n">
-        <v>649.2617893594903</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P22" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q22" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R22" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S22" t="n">
-        <v>728.1289842064344</v>
+        <v>2482.860667836386</v>
       </c>
       <c r="T22" t="n">
-        <v>625.3838260558018</v>
+        <v>2255.552480504988</v>
       </c>
       <c r="U22" t="n">
-        <v>625.3838260558018</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="V22" t="n">
-        <v>625.3838260558018</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="W22" t="n">
-        <v>625.3838260558018</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="X22" t="n">
-        <v>625.3838260558018</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y22" t="n">
-        <v>404.5912469122717</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1491.915471247703</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="C23" t="n">
-        <v>1122.952954307291</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="D23" t="n">
-        <v>1122.952954307291</v>
+        <v>1562.144220371539</v>
       </c>
       <c r="E23" t="n">
-        <v>737.1647017090468</v>
+        <v>1176.355967773295</v>
       </c>
       <c r="F23" t="n">
-        <v>326.1787969194392</v>
+        <v>765.3700629836871</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036446</v>
+        <v>347.406254881874</v>
       </c>
       <c r="H23" t="n">
         <v>53.94298182036446</v>
@@ -5987,19 +5987,19 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
@@ -6011,28 +6011,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X23" t="n">
-        <v>2268.654643287636</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Y23" t="n">
-        <v>1878.515311311824</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="24">
@@ -6072,7 +6072,7 @@
         <v>384.447464661593</v>
       </c>
       <c r="L24" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M24" t="n">
         <v>1194.968834417902</v>
@@ -6172,22 +6172,22 @@
         <v>2697.149091018223</v>
       </c>
       <c r="S25" t="n">
-        <v>2539.444886308983</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T25" t="n">
-        <v>2312.136698977585</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U25" t="n">
-        <v>2022.963088632153</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V25" t="n">
-        <v>2022.963088632153</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W25" t="n">
-        <v>2022.963088632153</v>
+        <v>2407.731920981262</v>
       </c>
       <c r="X25" t="n">
-        <v>2022.963088632153</v>
+        <v>2179.742370083245</v>
       </c>
       <c r="Y25" t="n">
         <v>2022.963088632153</v>
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1275.883734065348</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="C26" t="n">
-        <v>906.9212171249367</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="D26" t="n">
-        <v>850.7171392082163</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E26" t="n">
         <v>464.928886609972</v>
       </c>
       <c r="F26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P26" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q26" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S26" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T26" t="n">
-        <v>2247.308246834949</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U26" t="n">
-        <v>1993.546461473041</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V26" t="n">
-        <v>1662.48357412947</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W26" t="n">
-        <v>1662.48357412947</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X26" t="n">
-        <v>1662.48357412947</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y26" t="n">
-        <v>1662.48357412947</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="27">
@@ -6300,19 +6300,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K27" t="n">
-        <v>266.2060027641992</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L27" t="n">
-        <v>670.8219208598711</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M27" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N27" t="n">
         <v>1748.695370517453</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.94298182036446</v>
+        <v>391.878965009939</v>
       </c>
       <c r="C28" t="n">
-        <v>53.94298182036446</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D28" t="n">
-        <v>53.94298182036446</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036446</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036446</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L28" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M28" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N28" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S28" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T28" t="n">
-        <v>343.1165921657965</v>
+        <v>573.5274298401787</v>
       </c>
       <c r="U28" t="n">
-        <v>53.94298182036446</v>
+        <v>573.5274298401787</v>
       </c>
       <c r="V28" t="n">
-        <v>53.94298182036446</v>
+        <v>573.5274298401787</v>
       </c>
       <c r="W28" t="n">
-        <v>53.94298182036446</v>
+        <v>573.5274298401787</v>
       </c>
       <c r="X28" t="n">
-        <v>53.94298182036446</v>
+        <v>573.5274298401787</v>
       </c>
       <c r="Y28" t="n">
-        <v>53.94298182036446</v>
+        <v>573.5274298401787</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2255.520561484594</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="C29" t="n">
-        <v>2107.607341885688</v>
+        <v>1551.447402037877</v>
       </c>
       <c r="D29" t="n">
-        <v>1749.341643278937</v>
+        <v>1193.181703431127</v>
       </c>
       <c r="E29" t="n">
-        <v>1363.553390680693</v>
+        <v>807.3934508328825</v>
       </c>
       <c r="F29" t="n">
-        <v>952.5674858910851</v>
+        <v>396.407546043275</v>
       </c>
       <c r="G29" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H29" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L29" t="n">
         <v>881.2824271224076</v>
@@ -6473,40 +6473,40 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P29" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q29" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S29" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T29" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U29" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V29" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W29" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X29" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y29" t="n">
-        <v>2642.120401548716</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="30">
@@ -6537,28 +6537,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K30" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L30" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M30" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N30" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O30" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P30" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018223</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>325.6879402326646</v>
+        <v>404.8646000824888</v>
       </c>
       <c r="C31" t="n">
-        <v>325.6879402326646</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="D31" t="n">
-        <v>325.6879402326646</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="E31" t="n">
-        <v>325.6879402326646</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="F31" t="n">
-        <v>325.6879402326646</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="G31" t="n">
-        <v>211.6913543878343</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="H31" t="n">
-        <v>53.94298182036446</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K31" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M31" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N31" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q31" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R31" t="n">
-        <v>728.1289842064344</v>
+        <v>625.6571792260189</v>
       </c>
       <c r="S31" t="n">
-        <v>728.1289842064344</v>
+        <v>625.6571792260189</v>
       </c>
       <c r="T31" t="n">
-        <v>728.1289842064344</v>
+        <v>625.6571792260189</v>
       </c>
       <c r="U31" t="n">
-        <v>728.1289842064344</v>
+        <v>625.6571792260189</v>
       </c>
       <c r="V31" t="n">
-        <v>728.1289842064344</v>
+        <v>625.6571792260189</v>
       </c>
       <c r="W31" t="n">
-        <v>728.1289842064344</v>
+        <v>625.6571792260189</v>
       </c>
       <c r="X31" t="n">
-        <v>728.1289842064344</v>
+        <v>625.6571792260189</v>
       </c>
       <c r="Y31" t="n">
-        <v>507.3364050629043</v>
+        <v>404.8646000824888</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1309.714918859356</v>
+        <v>1546.94416071721</v>
       </c>
       <c r="C32" t="n">
-        <v>940.7524019189443</v>
+        <v>1177.981643776798</v>
       </c>
       <c r="D32" t="n">
-        <v>582.4867033121939</v>
+        <v>1177.981643776798</v>
       </c>
       <c r="E32" t="n">
-        <v>582.4867033121939</v>
+        <v>792.1933911785536</v>
       </c>
       <c r="F32" t="n">
-        <v>582.4867033121939</v>
+        <v>381.2074863889461</v>
       </c>
       <c r="G32" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H32" t="n">
         <v>53.94298182036446</v>
@@ -6698,13 +6698,13 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
@@ -6722,28 +6722,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R32" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S32" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T32" t="n">
-        <v>2247.308246834949</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U32" t="n">
-        <v>1993.546461473041</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V32" t="n">
-        <v>1662.48357412947</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W32" t="n">
-        <v>1309.714918859356</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X32" t="n">
-        <v>1309.714918859356</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y32" t="n">
-        <v>1309.714918859356</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="33">
@@ -6789,7 +6789,7 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N33" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O33" t="n">
         <v>2188.831293537797</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2022.963088632153</v>
+        <v>104.8839088629591</v>
       </c>
       <c r="C34" t="n">
-        <v>2022.963088632153</v>
+        <v>104.8839088629591</v>
       </c>
       <c r="D34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K34" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>2206.83913925958</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M34" t="n">
-        <v>2351.73700797761</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N34" t="n">
-        <v>2498.624145662039</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O34" t="n">
-        <v>2618.281896171279</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P34" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q34" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S34" t="n">
-        <v>2697.149091018223</v>
+        <v>513.840561024597</v>
       </c>
       <c r="T34" t="n">
-        <v>2697.149091018223</v>
+        <v>286.5323736931988</v>
       </c>
       <c r="U34" t="n">
-        <v>2697.149091018223</v>
+        <v>286.5323736931988</v>
       </c>
       <c r="V34" t="n">
-        <v>2442.464602812336</v>
+        <v>286.5323736931988</v>
       </c>
       <c r="W34" t="n">
-        <v>2153.047432775375</v>
+        <v>286.5323736931988</v>
       </c>
       <c r="X34" t="n">
-        <v>2022.963088632153</v>
+        <v>286.5323736931988</v>
       </c>
       <c r="Y34" t="n">
-        <v>2022.963088632153</v>
+        <v>286.5323736931988</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1995.909162857192</v>
+        <v>1386.090004781549</v>
       </c>
       <c r="C35" t="n">
-        <v>1626.94664591678</v>
+        <v>1017.127487841138</v>
       </c>
       <c r="D35" t="n">
-        <v>1268.68094731003</v>
+        <v>658.8617892343871</v>
       </c>
       <c r="E35" t="n">
-        <v>882.8926947117852</v>
+        <v>658.8617892343871</v>
       </c>
       <c r="F35" t="n">
-        <v>471.9067899221776</v>
+        <v>247.8758844447795</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036446</v>
+        <v>247.8758844447795</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P35" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q35" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S35" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T35" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U35" t="n">
-        <v>2697.149091018223</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V35" t="n">
-        <v>2697.149091018223</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W35" t="n">
-        <v>2697.149091018223</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X35" t="n">
-        <v>2697.149091018223</v>
+        <v>1386.090004781549</v>
       </c>
       <c r="Y35" t="n">
-        <v>2382.509002921313</v>
+        <v>1386.090004781549</v>
       </c>
     </row>
     <row r="36">
@@ -6990,67 +6990,67 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C36" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H36" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K36" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L36" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M36" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N36" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O36" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P36" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q36" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W36" t="n">
         <v>1572.325111207638</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2022.963088632153</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="C37" t="n">
-        <v>2022.963088632153</v>
+        <v>411.0461427127113</v>
       </c>
       <c r="D37" t="n">
-        <v>2022.963088632153</v>
+        <v>260.9295033003756</v>
       </c>
       <c r="E37" t="n">
-        <v>2022.963088632153</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K37" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L37" t="n">
-        <v>2206.83913925958</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M37" t="n">
-        <v>2351.73700797761</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N37" t="n">
-        <v>2498.624145662039</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O37" t="n">
-        <v>2618.281896171279</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P37" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q37" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R37" t="n">
-        <v>2549.002432452407</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S37" t="n">
-        <v>2425.404132605923</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T37" t="n">
-        <v>2425.404132605923</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U37" t="n">
-        <v>2425.404132605923</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V37" t="n">
-        <v>2425.404132605923</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="W37" t="n">
-        <v>2425.404132605923</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="X37" t="n">
-        <v>2425.404132605923</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="Y37" t="n">
-        <v>2204.611553462393</v>
+        <v>579.9823256406182</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>882.8926947117852</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="C38" t="n">
-        <v>882.8926947117852</v>
+        <v>1551.447402037877</v>
       </c>
       <c r="D38" t="n">
-        <v>882.8926947117852</v>
+        <v>1193.181703431127</v>
       </c>
       <c r="E38" t="n">
-        <v>882.8926947117852</v>
+        <v>807.3934508328825</v>
       </c>
       <c r="F38" t="n">
-        <v>471.9067899221776</v>
+        <v>396.407546043275</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P38" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q38" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T38" t="n">
-        <v>2584.09111292427</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U38" t="n">
-        <v>2330.329327562361</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V38" t="n">
-        <v>1999.266440218791</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W38" t="n">
-        <v>1646.497784948677</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X38" t="n">
-        <v>1273.032026687597</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y38" t="n">
-        <v>882.8926947117852</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="39">
@@ -7248,10 +7248,10 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K39" t="n">
         <v>309.190302261463</v>
@@ -7263,13 +7263,13 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N39" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O39" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P39" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018223</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>438.7118141694738</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C40" t="n">
-        <v>269.7756312415669</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D40" t="n">
-        <v>269.7756312415669</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E40" t="n">
-        <v>121.8625376591738</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F40" t="n">
-        <v>121.8625376591738</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K40" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L40" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M40" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N40" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T40" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U40" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V40" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W40" t="n">
-        <v>438.7118141694738</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X40" t="n">
-        <v>438.7118141694738</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y40" t="n">
-        <v>438.7118141694738</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1546.94416071721</v>
+        <v>1567.641263708175</v>
       </c>
       <c r="C41" t="n">
-        <v>1177.981643776798</v>
+        <v>1198.678746767763</v>
       </c>
       <c r="D41" t="n">
-        <v>1177.981643776798</v>
+        <v>840.4130481610125</v>
       </c>
       <c r="E41" t="n">
-        <v>792.1933911785536</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F41" t="n">
-        <v>381.2074863889461</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O41" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P41" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W41" t="n">
-        <v>2697.149091018223</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X41" t="n">
-        <v>2323.683332757143</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="Y41" t="n">
-        <v>1933.544000781331</v>
+        <v>1954.241103772296</v>
       </c>
     </row>
     <row r="42">
@@ -7485,10 +7485,10 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K42" t="n">
         <v>309.190302261463</v>
@@ -7506,10 +7506,10 @@
         <v>2231.815593035061</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q42" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R42" t="n">
         <v>2646.935720430048</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>222.8791647482714</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="C43" t="n">
-        <v>53.94298182036446</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="D43" t="n">
-        <v>53.94298182036446</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="E43" t="n">
-        <v>53.94298182036446</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="F43" t="n">
-        <v>53.94298182036446</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K43" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L43" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M43" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N43" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R43" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S43" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T43" t="n">
-        <v>625.3202087220412</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U43" t="n">
-        <v>625.3202087220412</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="V43" t="n">
-        <v>625.3202087220412</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="W43" t="n">
-        <v>625.3202087220412</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="X43" t="n">
-        <v>625.3202087220412</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="Y43" t="n">
-        <v>404.5276295785111</v>
+        <v>290.8087152951862</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>936.2491605982757</v>
+        <v>781.1711973675267</v>
       </c>
       <c r="C44" t="n">
-        <v>567.286643657864</v>
+        <v>412.2086804271149</v>
       </c>
       <c r="D44" t="n">
-        <v>209.0209450511135</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E44" t="n">
-        <v>209.0209450511135</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F44" t="n">
-        <v>209.0209450511135</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G44" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H44" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I44" t="n">
         <v>53.94298182036445</v>
@@ -7649,10 +7649,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
@@ -7673,25 +7673,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S44" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T44" t="n">
-        <v>2247.308246834948</v>
+        <v>2495.503697383053</v>
       </c>
       <c r="U44" t="n">
-        <v>1993.54646147304</v>
+        <v>2241.741912021145</v>
       </c>
       <c r="V44" t="n">
-        <v>1662.48357412947</v>
+        <v>1910.679024677574</v>
       </c>
       <c r="W44" t="n">
-        <v>1309.714918859356</v>
+        <v>1557.91036940746</v>
       </c>
       <c r="X44" t="n">
-        <v>936.2491605982757</v>
+        <v>1557.91036940746</v>
       </c>
       <c r="Y44" t="n">
-        <v>936.2491605982757</v>
+        <v>1167.771037431648</v>
       </c>
     </row>
     <row r="45">
@@ -7701,19 +7701,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C45" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E45" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G45" t="n">
         <v>221.4284102424006</v>
@@ -7725,16 +7725,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J45" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K45" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L45" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M45" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N45" t="n">
         <v>1748.695370517453</v>
@@ -7746,22 +7746,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q45" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W45" t="n">
         <v>1572.325111207638</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>53.94298182036445</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="C46" t="n">
-        <v>53.94298182036445</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="D46" t="n">
-        <v>53.94298182036445</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="E46" t="n">
-        <v>53.94298182036445</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="F46" t="n">
-        <v>53.94298182036445</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="G46" t="n">
         <v>53.94298182036445</v>
@@ -7810,46 +7810,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L46" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M46" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N46" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O46" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R46" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S46" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T46" t="n">
-        <v>286.5323736931989</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U46" t="n">
-        <v>286.5323736931989</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V46" t="n">
-        <v>286.5323736931989</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W46" t="n">
-        <v>281.9325327183818</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="X46" t="n">
-        <v>53.94298182036445</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.94298182036445</v>
+        <v>184.0273259635867</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747119</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8450,7 +8450,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720733</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
         <v>324.1454125711647</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720733</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
@@ -8766,10 +8766,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>221.0467526719084</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -9018,13 +9018,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>274.4264991783523</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9255,13 +9255,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>274.4264991783523</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9489,10 +9489,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O21" t="n">
-        <v>350.4438349360584</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9720,10 +9720,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516226</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
@@ -9951,10 +9951,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K27" t="n">
-        <v>145.0294169142012</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9963,7 +9963,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -10188,7 +10188,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10200,7 +10200,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10209,7 +10209,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10437,10 +10437,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O33" t="n">
-        <v>350.4438349360588</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10604,7 +10604,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10683,7 +10683,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.64146763747119</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10911,7 +10911,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10920,7 +10920,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11075,7 +11075,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714828</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11154,10 +11154,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>275.0442842992664</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,7 +11297,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711643</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11315,7 +11315,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11382,10 +11382,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>422.286579409329</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -22547,13 +22547,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>154.1476279401058</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22595,16 +22595,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>22.10178362120723</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -22747,7 +22747,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -22759,7 +22759,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>231.8063182229438</v>
+        <v>202.6835682680295</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22793,10 +22793,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>42.05485008526449</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -22829,25 +22829,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>49.75530764602176</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22948,22 +22948,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>128.0571403890124</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>38.28517746264737</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22996,10 +22996,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -23018,10 +23018,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>260.7615551004096</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -23033,10 +23033,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>21.56764906729035</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -23066,10 +23066,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -23185,19 +23185,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>128.0571403890124</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>125.6900249618412</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23221,16 +23221,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,19 +23264,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>103.3212974824697</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>37.74728150147314</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,7 +23303,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S11" t="n">
         <v>174.4157128089715</v>
@@ -23324,7 +23324,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23422,13 +23422,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>128.0571403890124</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>82.85718120047571</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23437,7 +23437,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S13" t="n">
         <v>212.1455389500189</v>
@@ -23498,7 +23498,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23507,10 +23507,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>144.2707130727114</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>263.6532530567063</v>
       </c>
       <c r="I14" t="n">
         <v>151.9313162448613</v>
@@ -23540,7 +23540,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S14" t="n">
         <v>174.4157128089715</v>
@@ -23549,7 +23549,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23558,10 +23558,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23665,16 +23665,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>3.115350019202168</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853701</v>
+        <v>11.99007165458412</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,10 +23695,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>212.1455389500189</v>
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>260.7615551004096</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -23744,10 +23744,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>151.9313162448613</v>
@@ -23777,16 +23777,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>187.853170373113</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23908,10 +23908,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,31 +23932,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S19" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>96.01048066168096</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>63.3731647155137</v>
       </c>
     </row>
     <row r="20">
@@ -23966,22 +23966,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>309.2728333501966</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
         <v>323.9227727643571</v>
@@ -24014,19 +24014,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>300.8083635436241</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24139,7 +24139,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
         <v>156.1708888417951</v>
@@ -24148,7 +24148,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24172,16 +24172,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>123.317398888958</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>56.01837628787177</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24193,7 +24193,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24206,10 +24206,10 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24218,10 +24218,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>144.270713072711</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>33.39413243346274</v>
       </c>
       <c r="I23" t="n">
         <v>151.9313162448613</v>
@@ -24251,7 +24251,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
@@ -24269,7 +24269,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24385,7 +24385,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24409,28 +24409,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
-        <v>56.01837628787177</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>63.37316471551401</v>
       </c>
     </row>
     <row r="26">
@@ -24443,10 +24443,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>25.24910919451776</v>
       </c>
       <c r="D26" t="n">
-        <v>299.0410044831298</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24488,28 +24488,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24613,7 +24613,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>156.1708888417951</v>
@@ -24622,7 +24622,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24646,16 +24646,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>56.01837628787166</v>
+        <v>71.97956663549132</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24680,7 +24680,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>218.8388043680903</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24692,13 +24692,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>74.74425144011354</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,7 +24725,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
         <v>174.4157128089715</v>
@@ -24746,7 +24746,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24835,10 +24835,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24850,16 +24850,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>54.45318227266895</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24880,10 +24880,10 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801578</v>
+        <v>74.34085500446099</v>
       </c>
       <c r="S31" t="n">
         <v>212.1455389500189</v>
@@ -24914,25 +24914,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>214.4486585082411</v>
+        <v>89.79231049789928</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
         <v>151.9313162448613</v>
@@ -24962,28 +24962,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25072,13 +25072,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>98.18395524604367</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25096,7 +25096,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25120,25 +25120,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>96.92615468724728</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25151,7 +25151,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25160,16 +25160,16 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>131.9291991661863</v>
       </c>
       <c r="I35" t="n">
         <v>151.9313162448613</v>
@@ -25199,7 +25199,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
@@ -25208,19 +25208,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>74.7442514401132</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25309,19 +25309,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>86.93835440428941</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>167.3098022590509</v>
@@ -25333,7 +25333,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>89.78322210199998</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
         <v>225.0351054580843</v>
@@ -25378,7 +25378,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25388,22 +25388,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>74.74425144011354</v>
       </c>
       <c r="H38" t="n">
         <v>323.9227727643571</v>
@@ -25436,25 +25436,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>158.9993246194562</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25546,22 +25546,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>100.0694419786297</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
         <v>156.1708888417951</v>
@@ -25570,7 +25570,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
         <v>212.1455389500189</v>
@@ -25609,7 +25609,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25631,16 +25631,16 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>10.20105013673168</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>89.79231049789928</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
@@ -25673,7 +25673,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
@@ -25688,10 +25688,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25783,10 +25783,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25795,10 +25795,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>78.23377414190865</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>156.1708888417951</v>
@@ -25807,7 +25807,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25831,16 +25831,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>123.254417728535</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25852,7 +25852,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25862,7 +25862,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25877,13 +25877,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>412.1883026672147</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,10 +25913,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>71.29778323365221</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25928,10 +25928,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26035,7 +26035,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3098022590509</v>
+        <v>38.52630155726084</v>
       </c>
       <c r="H46" t="n">
         <v>156.1708888417951</v>
@@ -26044,7 +26044,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26068,25 +26068,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>281.9691557715221</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>726139.7136092102</v>
+        <v>726139.71360921</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>726139.71360921</v>
+        <v>726139.7136092101</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>726139.7136092099</v>
+        <v>726139.71360921</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>726139.71360921</v>
+        <v>726139.7136092101</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>726139.71360921</v>
+        <v>726139.7136092101</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>726139.7136092101</v>
+        <v>726139.71360921</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>726139.7136092101</v>
+        <v>726139.71360921</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>726139.71360921</v>
+        <v>726139.7136092101</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>726139.71360921</v>
+        <v>726139.7136092099</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>726139.7136092101</v>
+        <v>726139.71360921</v>
       </c>
     </row>
   </sheetData>
@@ -26317,7 +26317,7 @@
         <v>303610.2405165454</v>
       </c>
       <c r="D2" t="n">
-        <v>303610.2405165454</v>
+        <v>303610.2405165457</v>
       </c>
       <c r="E2" t="n">
         <v>303610.2405165454</v>
@@ -26326,25 +26326,25 @@
         <v>303610.2405165454</v>
       </c>
       <c r="G2" t="n">
-        <v>303610.2405165455</v>
+        <v>303610.2405165453</v>
       </c>
       <c r="H2" t="n">
-        <v>303610.2405165454</v>
+        <v>303610.2405165453</v>
       </c>
       <c r="I2" t="n">
         <v>303610.2405165454</v>
       </c>
       <c r="J2" t="n">
-        <v>303610.2405165458</v>
+        <v>303610.2405165454</v>
       </c>
       <c r="K2" t="n">
-        <v>303610.2405165457</v>
+        <v>303610.2405165453</v>
       </c>
       <c r="L2" t="n">
         <v>303610.2405165454</v>
       </c>
       <c r="M2" t="n">
-        <v>303610.2405165455</v>
+        <v>303610.2405165453</v>
       </c>
       <c r="N2" t="n">
         <v>303610.2405165454</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="C4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="D4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="E4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="F4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="G4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="H4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="I4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="J4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="K4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="L4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="M4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="N4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="O4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="P4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
     </row>
     <row r="5">
@@ -26473,40 +26473,40 @@
         <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>49231.47806340946</v>
       </c>
       <c r="F5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="G5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="H5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="I5" t="n">
         <v>49231.47806340947</v>
       </c>
       <c r="J5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="K5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="L5" t="n">
         <v>49231.47806340947</v>
       </c>
       <c r="M5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="N5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="O5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="P5" t="n">
         <v>49231.47806340946</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-387030.4298216045</v>
+        <v>-387445.6443310717</v>
       </c>
       <c r="C6" t="n">
-        <v>202937.44939294</v>
+        <v>202522.2348834727</v>
       </c>
       <c r="D6" t="n">
-        <v>202937.44939294</v>
+        <v>202522.2348834729</v>
       </c>
       <c r="E6" t="n">
-        <v>236565.04939294</v>
+        <v>236149.8348834727</v>
       </c>
       <c r="F6" t="n">
-        <v>236565.0493929399</v>
+        <v>236149.8348834726</v>
       </c>
       <c r="G6" t="n">
-        <v>236565.0493929401</v>
+        <v>236149.8348834726</v>
       </c>
       <c r="H6" t="n">
-        <v>236565.04939294</v>
+        <v>236149.8348834726</v>
       </c>
       <c r="I6" t="n">
-        <v>236565.0493929399</v>
+        <v>236149.8348834726</v>
       </c>
       <c r="J6" t="n">
-        <v>60141.83020034733</v>
+        <v>59726.61569087976</v>
       </c>
       <c r="K6" t="n">
-        <v>236565.0493929402</v>
+        <v>236149.8348834726</v>
       </c>
       <c r="L6" t="n">
-        <v>236565.0493929399</v>
+        <v>236149.8348834726</v>
       </c>
       <c r="M6" t="n">
-        <v>236565.04939294</v>
+        <v>236149.8348834726</v>
       </c>
       <c r="N6" t="n">
-        <v>236565.04939294</v>
+        <v>236149.8348834726</v>
       </c>
       <c r="O6" t="n">
-        <v>236565.04939294</v>
+        <v>236149.8348834726</v>
       </c>
       <c r="P6" t="n">
-        <v>236565.04939294</v>
+        <v>236149.8348834727</v>
       </c>
     </row>
   </sheetData>
@@ -26744,40 +26744,40 @@
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="F3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="G3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="H3" t="n">
         <v>377.7436642170866</v>
       </c>
-      <c r="F3" t="n">
+      <c r="I3" t="n">
         <v>377.7436642170866</v>
       </c>
-      <c r="G3" t="n">
+      <c r="J3" t="n">
         <v>377.7436642170866</v>
       </c>
-      <c r="H3" t="n">
-        <v>377.7436642170867</v>
-      </c>
-      <c r="I3" t="n">
-        <v>377.7436642170867</v>
-      </c>
-      <c r="J3" t="n">
-        <v>377.7436642170867</v>
-      </c>
       <c r="K3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="L3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="M3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="N3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="O3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="P3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
     </row>
     <row r="4">
@@ -26793,40 +26793,40 @@
         <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="F4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="G4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="H4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="I4" t="n">
         <v>674.2872727545557</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="L4" t="n">
         <v>674.2872727545557</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="P4" t="n">
         <v>674.2872727545556</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -31756,19 +31756,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L11" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N11" t="n">
         <v>270.9617944338304</v>
@@ -31783,13 +31783,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31829,16 +31829,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I12" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
@@ -31856,22 +31856,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q12" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S12" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,16 +31908,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I13" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K13" t="n">
         <v>79.14039391302239</v>
@@ -31932,16 +31932,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P13" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S13" t="n">
         <v>11.87105908695336</v>
@@ -31987,46 +31987,46 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H14" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L14" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N14" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P14" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q14" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32066,16 +32066,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I15" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32093,22 +32093,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q15" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S15" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,19 +32145,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I16" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L16" t="n">
         <v>101.2724571246924</v>
@@ -32169,22 +32169,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S16" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U16" t="n">
         <v>0.0371551145131561</v>
@@ -32224,46 +32224,46 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H17" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K17" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L17" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M17" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N17" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O17" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P17" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q17" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S17" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32303,16 +32303,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I18" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K18" t="n">
         <v>131.2017781649102</v>
@@ -32330,22 +32330,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P18" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q18" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S18" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T18" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,19 +32382,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I19" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J19" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K19" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L19" t="n">
         <v>101.2724571246924</v>
@@ -32406,22 +32406,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P19" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R19" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S19" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T19" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U19" t="n">
         <v>0.0371551145131561</v>
@@ -32467,19 +32467,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K20" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L20" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M20" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N20" t="n">
         <v>270.9617944338304</v>
@@ -32494,13 +32494,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S20" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32540,16 +32540,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I21" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32567,22 +32567,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P21" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q21" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S21" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T21" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,16 +32619,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I22" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K22" t="n">
         <v>79.14039391302239</v>
@@ -32643,16 +32643,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P22" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R22" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S22" t="n">
         <v>11.87105908695336</v>
@@ -32704,19 +32704,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K23" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L23" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M23" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N23" t="n">
         <v>270.9617944338304</v>
@@ -32731,13 +32731,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S23" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32777,16 +32777,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I24" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32804,22 +32804,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P24" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q24" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S24" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,16 +32856,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I25" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K25" t="n">
         <v>79.14039391302239</v>
@@ -32880,16 +32880,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P25" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R25" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S25" t="n">
         <v>11.87105908695336</v>
@@ -32941,19 +32941,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K26" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L26" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M26" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N26" t="n">
         <v>270.9617944338304</v>
@@ -32968,13 +32968,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S26" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33014,16 +33014,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I27" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33041,22 +33041,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P27" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q27" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S27" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,16 +33093,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I28" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K28" t="n">
         <v>79.14039391302239</v>
@@ -33117,16 +33117,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P28" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R28" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S28" t="n">
         <v>11.87105908695336</v>
@@ -33178,19 +33178,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K29" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L29" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M29" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N29" t="n">
         <v>270.9617944338304</v>
@@ -33205,13 +33205,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S29" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33251,16 +33251,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I30" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33278,22 +33278,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P30" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q30" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S30" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T30" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,16 +33330,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I31" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J31" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K31" t="n">
         <v>79.14039391302239</v>
@@ -33354,16 +33354,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P31" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R31" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S31" t="n">
         <v>11.87105908695336</v>
@@ -33415,19 +33415,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K32" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L32" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M32" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N32" t="n">
         <v>270.9617944338304</v>
@@ -33442,13 +33442,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S32" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33488,16 +33488,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I33" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33515,22 +33515,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P33" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q33" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S33" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,16 +33567,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I34" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K34" t="n">
         <v>79.14039391302239</v>
@@ -33591,16 +33591,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P34" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R34" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S34" t="n">
         <v>11.87105908695336</v>
@@ -33652,19 +33652,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K35" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L35" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M35" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N35" t="n">
         <v>270.9617944338304</v>
@@ -33679,13 +33679,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S35" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33725,16 +33725,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I36" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33752,22 +33752,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P36" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q36" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S36" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T36" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,16 +33804,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I37" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J37" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K37" t="n">
         <v>79.14039391302239</v>
@@ -33828,16 +33828,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P37" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R37" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S37" t="n">
         <v>11.87105908695336</v>
@@ -33889,19 +33889,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K38" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L38" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M38" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N38" t="n">
         <v>270.9617944338304</v>
@@ -33916,13 +33916,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S38" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33962,16 +33962,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I39" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33989,22 +33989,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P39" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q39" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S39" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T39" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,16 +34041,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I40" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J40" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K40" t="n">
         <v>79.14039391302239</v>
@@ -34065,16 +34065,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P40" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R40" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S40" t="n">
         <v>11.87105908695336</v>
@@ -34126,19 +34126,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K41" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L41" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M41" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N41" t="n">
         <v>270.9617944338304</v>
@@ -34153,13 +34153,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S41" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34199,16 +34199,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I42" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34226,22 +34226,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P42" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q42" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S42" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,16 +34278,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I43" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
         <v>79.14039391302239</v>
@@ -34302,16 +34302,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P43" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R43" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S43" t="n">
         <v>11.87105908695336</v>
@@ -34363,19 +34363,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K44" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L44" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M44" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N44" t="n">
         <v>270.9617944338304</v>
@@ -34390,13 +34390,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S44" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34436,16 +34436,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I45" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34463,22 +34463,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P45" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q45" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S45" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T45" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,16 +34515,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I46" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J46" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K46" t="n">
         <v>79.14039391302239</v>
@@ -34539,16 +34539,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P46" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R46" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S46" t="n">
         <v>11.87105908695336</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,7 +35170,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181306</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
         <v>297.223041434342</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,19 +35407,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181306</v>
       </c>
       <c r="K11" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O11" t="n">
         <v>406.5635087530452</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K12" t="n">
-        <v>214.4070918624596</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L12" t="n">
         <v>408.7029475713857</v>
@@ -35498,13 +35498,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O12" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q12" t="n">
         <v>173.8110948137341</v>
@@ -35644,25 +35644,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K14" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P14" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q14" t="n">
         <v>153.9975062898689</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K15" t="n">
         <v>257.8255762031298</v>
@@ -35735,16 +35735,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O15" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q15" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35805,7 +35805,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L16" t="n">
         <v>128.8624823850085</v>
@@ -35820,7 +35820,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35881,25 +35881,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.9372285181308</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K17" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L17" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M17" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N17" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O17" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P17" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q17" t="n">
         <v>153.9975062898689</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>257.8255762031298</v>
@@ -35972,16 +35972,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O18" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q18" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,7 +36042,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L19" t="n">
         <v>128.8624823850085</v>
@@ -36057,7 +36057,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P19" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,19 +36118,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K20" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L20" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M20" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N20" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O20" t="n">
         <v>406.5635087530452</v>
@@ -36209,13 +36209,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O21" t="n">
-        <v>401.1632560839187</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
         <v>173.8110948137341</v>
@@ -36355,19 +36355,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K23" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L23" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M23" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N23" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O23" t="n">
         <v>406.5635087530452</v>
@@ -36434,25 +36434,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L24" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M24" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279164</v>
       </c>
       <c r="N24" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O24" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
         <v>173.8110948137341</v>
@@ -36592,19 +36592,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K26" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L26" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M26" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N26" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O26" t="n">
         <v>406.5635087530452</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>138.3897561047524</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L27" t="n">
         <v>408.7029475713857</v>
@@ -36683,13 +36683,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O27" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
         <v>173.8110948137341</v>
@@ -36829,19 +36829,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K29" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L29" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M29" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N29" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O29" t="n">
         <v>406.5635087530452</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36920,16 +36920,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37066,19 +37066,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K32" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L32" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M32" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N32" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O32" t="n">
         <v>406.5635087530452</v>
@@ -37157,13 +37157,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O33" t="n">
-        <v>401.1632560839191</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
         <v>173.8110948137341</v>
@@ -37303,19 +37303,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K35" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L35" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M35" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N35" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O35" t="n">
         <v>406.5635087530452</v>
@@ -37324,7 +37324,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q35" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031298</v>
@@ -37394,16 +37394,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,19 +37540,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K38" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L38" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M38" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N38" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O38" t="n">
         <v>406.5635087530452</v>
@@ -37631,16 +37631,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,19 +37777,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K41" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L41" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M41" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N41" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
         <v>406.5635087530452</v>
@@ -37868,16 +37868,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O42" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,19 +38014,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K44" t="n">
-        <v>297.2230414343415</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L44" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M44" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N44" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O44" t="n">
         <v>406.5635087530452</v>
@@ -38035,7 +38035,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q44" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
@@ -38102,16 +38102,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M45" t="n">
-        <v>486.0228424856228</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O45" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P45" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
         <v>173.8110948137341</v>
